--- a/SchedulingData/dynamic14/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,345 +466,345 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>244.74</v>
+        <v>269.32</v>
       </c>
       <c r="D2" t="n">
-        <v>307.24</v>
+        <v>338.64</v>
       </c>
       <c r="E2" t="n">
-        <v>11.436</v>
+        <v>11.696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249.34</v>
+        <v>242.38</v>
       </c>
       <c r="D3" t="n">
-        <v>304.54</v>
+        <v>309.68</v>
       </c>
       <c r="E3" t="n">
-        <v>12.356</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>208.16</v>
+        <v>309.68</v>
       </c>
       <c r="D4" t="n">
-        <v>266.26</v>
+        <v>365.16</v>
       </c>
       <c r="E4" t="n">
-        <v>14.884</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>225.48</v>
+        <v>208.54</v>
       </c>
       <c r="D5" t="n">
-        <v>281.24</v>
+        <v>264.34</v>
       </c>
       <c r="E5" t="n">
-        <v>11.576</v>
+        <v>11.756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>213.92</v>
+        <v>241.42</v>
       </c>
       <c r="D6" t="n">
-        <v>302.62</v>
+        <v>296.92</v>
       </c>
       <c r="E6" t="n">
-        <v>14.648</v>
+        <v>12.968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>281.24</v>
+        <v>207.44</v>
       </c>
       <c r="D7" t="n">
-        <v>362.1</v>
+        <v>259.64</v>
       </c>
       <c r="E7" t="n">
-        <v>7.6</v>
+        <v>12.736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>307.24</v>
+        <v>296.92</v>
       </c>
       <c r="D8" t="n">
-        <v>362.72</v>
+        <v>363.02</v>
       </c>
       <c r="E8" t="n">
-        <v>8.488</v>
+        <v>7.988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>362.1</v>
+        <v>338.64</v>
       </c>
       <c r="D9" t="n">
-        <v>412.32</v>
+        <v>415.56</v>
       </c>
       <c r="E9" t="n">
-        <v>4.688</v>
+        <v>7.104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>222.14</v>
+        <v>264.34</v>
       </c>
       <c r="D10" t="n">
-        <v>295.84</v>
+        <v>315.12</v>
       </c>
       <c r="E10" t="n">
-        <v>11.596</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>266.26</v>
+        <v>241.78</v>
       </c>
       <c r="D11" t="n">
-        <v>314.76</v>
+        <v>311.88</v>
       </c>
       <c r="E11" t="n">
-        <v>11.164</v>
+        <v>12.932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.76</v>
+        <v>311.88</v>
       </c>
       <c r="D12" t="n">
-        <v>364.96</v>
+        <v>420.58</v>
       </c>
       <c r="E12" t="n">
-        <v>7.784</v>
+        <v>8.132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>364.96</v>
+        <v>420.58</v>
       </c>
       <c r="D13" t="n">
-        <v>430.36</v>
+        <v>488.1</v>
       </c>
       <c r="E13" t="n">
-        <v>3.364</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>412.32</v>
+        <v>259.64</v>
       </c>
       <c r="D14" t="n">
-        <v>464.28</v>
+        <v>315.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.092</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>302.62</v>
+        <v>315.4</v>
       </c>
       <c r="D15" t="n">
-        <v>346.06</v>
+        <v>354.06</v>
       </c>
       <c r="E15" t="n">
-        <v>11.944</v>
+        <v>7.024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>346.06</v>
+        <v>363.02</v>
       </c>
       <c r="D16" t="n">
-        <v>393.5</v>
+        <v>429.16</v>
       </c>
       <c r="E16" t="n">
-        <v>8.82</v>
+        <v>3.984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>393.5</v>
+        <v>354.06</v>
       </c>
       <c r="D17" t="n">
-        <v>452.92</v>
+        <v>421.86</v>
       </c>
       <c r="E17" t="n">
-        <v>4.508</v>
+        <v>1.864</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>304.54</v>
+        <v>421.86</v>
       </c>
       <c r="D18" t="n">
-        <v>371.64</v>
+        <v>500.03</v>
       </c>
       <c r="E18" t="n">
-        <v>8.276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>452.92</v>
+        <v>429.16</v>
       </c>
       <c r="D19" t="n">
-        <v>511.72</v>
+        <v>472.76</v>
       </c>
       <c r="E19" t="n">
-        <v>0.248</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>511.72</v>
+        <v>472.76</v>
       </c>
       <c r="D20" t="n">
-        <v>597.8200000000001</v>
+        <v>539.23</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -823,78 +823,78 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>295.84</v>
+        <v>315.12</v>
       </c>
       <c r="D21" t="n">
-        <v>341.74</v>
+        <v>373.62</v>
       </c>
       <c r="E21" t="n">
-        <v>8.635999999999999</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>371.64</v>
+        <v>539.23</v>
       </c>
       <c r="D22" t="n">
-        <v>414.24</v>
+        <v>621.4299999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>5.636</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>430.36</v>
+        <v>500.03</v>
       </c>
       <c r="D23" t="n">
-        <v>469.82</v>
+        <v>571.73</v>
       </c>
       <c r="E23" t="n">
-        <v>0.548</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>469.82</v>
+        <v>373.62</v>
       </c>
       <c r="D24" t="n">
-        <v>550.42</v>
+        <v>451.28</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>362.72</v>
+        <v>415.56</v>
       </c>
       <c r="D25" t="n">
-        <v>410.96</v>
+        <v>456.06</v>
       </c>
       <c r="E25" t="n">
-        <v>5.784</v>
+        <v>4.684</v>
       </c>
     </row>
     <row r="26">
@@ -922,302 +922,302 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>464.28</v>
+        <v>488.1</v>
       </c>
       <c r="D26" t="n">
-        <v>532.1</v>
+        <v>550.6</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>532.1</v>
+        <v>456.06</v>
       </c>
       <c r="D27" t="n">
-        <v>593.2</v>
+        <v>496.12</v>
       </c>
       <c r="E27" t="n">
-        <v>26.08</v>
+        <v>2.308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>341.74</v>
+        <v>496.12</v>
       </c>
       <c r="D28" t="n">
-        <v>404.76</v>
+        <v>592.9</v>
       </c>
       <c r="E28" t="n">
-        <v>5.424</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>593.2</v>
+        <v>592.9</v>
       </c>
       <c r="D29" t="n">
-        <v>667.1799999999999</v>
+        <v>666.24</v>
       </c>
       <c r="E29" t="n">
-        <v>23.272</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>414.24</v>
+        <v>365.16</v>
       </c>
       <c r="D30" t="n">
-        <v>490.34</v>
+        <v>406.22</v>
       </c>
       <c r="E30" t="n">
-        <v>0.656</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>490.34</v>
+        <v>571.73</v>
       </c>
       <c r="D31" t="n">
-        <v>575.73</v>
+        <v>610.9299999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>550.42</v>
+        <v>550.6</v>
       </c>
       <c r="D32" t="n">
-        <v>606.22</v>
+        <v>637.5599999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>25.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>404.76</v>
+        <v>637.5599999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>440.26</v>
+        <v>686.4</v>
       </c>
       <c r="E33" t="n">
-        <v>3.004</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>410.96</v>
+        <v>610.9299999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>457.2</v>
+        <v>654.17</v>
       </c>
       <c r="E34" t="n">
-        <v>2.3</v>
+        <v>19.996</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>440.26</v>
+        <v>451.28</v>
       </c>
       <c r="D35" t="n">
-        <v>478.7</v>
+        <v>522.58</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>478.7</v>
+        <v>522.58</v>
       </c>
       <c r="D36" t="n">
-        <v>579.4</v>
+        <v>594.36</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>457.2</v>
+        <v>406.22</v>
       </c>
       <c r="D37" t="n">
-        <v>544.4</v>
+        <v>468.4</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>544.4</v>
+        <v>468.4</v>
       </c>
       <c r="D38" t="n">
-        <v>619.5599999999999</v>
+        <v>541.88</v>
       </c>
       <c r="E38" t="n">
-        <v>27.624</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>667.1799999999999</v>
+        <v>666.24</v>
       </c>
       <c r="D39" t="n">
-        <v>716.24</v>
+        <v>742.12</v>
       </c>
       <c r="E39" t="n">
-        <v>19.996</v>
+        <v>24.788</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>575.73</v>
+        <v>541.88</v>
       </c>
       <c r="D40" t="n">
-        <v>634.79</v>
+        <v>602.6</v>
       </c>
       <c r="E40" t="n">
-        <v>27.264</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>619.5599999999999</v>
+        <v>621.4299999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>649.72</v>
+        <v>675.91</v>
       </c>
       <c r="E41" t="n">
-        <v>25.248</v>
+        <v>24.112</v>
       </c>
     </row>
     <row r="42">
@@ -1226,55 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>597.8200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D42" t="n">
-        <v>654.1</v>
+        <v>642.5599999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>27.032</v>
+        <v>24.712</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>606.22</v>
+        <v>594.36</v>
       </c>
       <c r="D43" t="n">
-        <v>674.3200000000001</v>
+        <v>649.5599999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>23.38</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond58</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>649.72</v>
-      </c>
-      <c r="D44" t="n">
-        <v>711.92</v>
-      </c>
-      <c r="E44" t="n">
-        <v>22.168</v>
+        <v>24.072</v>
       </c>
     </row>
   </sheetData>
